--- a/Others/BOM/USBasp Programmer v1.0.xlsx
+++ b/Others/BOM/USBasp Programmer v1.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\AVR-USBasp-Programmer_V0.1\Others\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
@@ -12,9 +17,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AVR_ISP_USB_TQFP" localSheetId="0">Sheet1!$A$1:$H$19</definedName>
+    <definedName name="AVR_ISP_USB_TQFP" localSheetId="0">Sheet1!$A$3:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -58,21 +63,6 @@
     <t>Supplier and ref</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Header_Straight_1x02</t>
-  </si>
-  <si>
-    <t>SELF_PROG</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
-    <t>SLOW_SCK</t>
-  </si>
-  <si>
     <t>CON1</t>
   </si>
   <si>
@@ -82,21 +72,9 @@
     <t>USB-MICRO-B</t>
   </si>
   <si>
-    <t>P5,P4,P3,P2</t>
-  </si>
-  <si>
-    <t>1pin</t>
-  </si>
-  <si>
-    <t>CONN_01X01</t>
-  </si>
-  <si>
     <t>C1,C2</t>
   </si>
   <si>
-    <t>C_0603_HandSoldering</t>
-  </si>
-  <si>
     <t>22pF</t>
   </si>
   <si>
@@ -118,33 +96,18 @@
     <t>D1</t>
   </si>
   <si>
-    <t>LED-0603_NEW</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>GREEN</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
     <t>5X2_FRC_2SIDE_EE</t>
   </si>
   <si>
-    <t>CONN_02X05</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>R_0603_HandSoldering</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -169,12 +132,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>HC-49V</t>
-  </si>
-  <si>
-    <t>12MHz</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
@@ -187,25 +144,60 @@
     <t>D3,D4</t>
   </si>
   <si>
-    <t>ZenerDiode_SMD_new</t>
-  </si>
-  <si>
     <t>3.6V</t>
   </si>
   <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>LOGO (2)</t>
+    <t>USBasp Programmer v1.0</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>0.254mm Pitch</t>
+  </si>
+  <si>
+    <t>Male Pin header</t>
+  </si>
+  <si>
+    <t>JP1,Jp2</t>
+  </si>
+  <si>
+    <t>0603 Package</t>
+  </si>
+  <si>
+    <t>RED LED</t>
+  </si>
+  <si>
+    <t>GREEN LED</t>
+  </si>
+  <si>
+    <t>Box header</t>
+  </si>
+  <si>
+    <t>Through hole</t>
+  </si>
+  <si>
+    <t>12MHz Cryastal</t>
+  </si>
+  <si>
+    <t>SOD-80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -220,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -228,18 +220,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -290,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +340,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +375,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,368 +551,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4*E$1</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F19" si="0">D5*E$1</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
